--- a/Fix/fix cur. 17.xlsx
+++ b/Fix/fix cur. 17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>amt</t>
   </si>
@@ -94,9 +94,6 @@
     <t>50300001644294</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24106000074272</t>
-  </si>
-  <si>
     <t>500 EOM</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>SB</t>
-  </si>
-  <si>
-    <t>2.5 * 9</t>
   </si>
 </sst>
 </file>
@@ -173,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,12 +223,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF003300"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -272,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -336,9 +324,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -352,22 +337,22 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -384,26 +369,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,9 +792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -838,7 +809,7 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="42" customWidth="1"/>
     <col min="11" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,47 +879,47 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="52">
+    <row r="3" spans="1:21" s="50" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="45">
         <v>10.75</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="45">
         <v>9.25</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46">
         <v>41636</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="46">
         <v>42001</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="47">
         <f>24188/3</f>
         <v>8062.666666666667</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="9">
@@ -1060,46 +1031,46 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="24">
+    <row r="7" spans="1:21" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="23">
         <v>12.3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>10.050000000000001</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="28">
+      <c r="F7" s="23"/>
+      <c r="G7" s="27">
         <v>41304</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>42399</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>10215</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
     </row>
     <row r="8" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="9">
@@ -1124,11 +1095,11 @@
       <c r="H8" s="21">
         <v>42210</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>4830</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>32</v>
+      <c r="J8" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11"/>
@@ -1165,11 +1136,11 @@
       <c r="H9" s="21">
         <v>42141</v>
       </c>
-      <c r="I9" s="48">
-        <v>3400</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>42</v>
+      <c r="I9" s="36">
+        <v>3425</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11"/>
@@ -1212,96 +1183,97 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="30">
+    <row r="11" spans="1:21" s="33" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="29">
         <v>7</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>9.25</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
+      <c r="F11" s="29"/>
+      <c r="G11" s="30">
         <v>41460</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>41826</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>5354</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-    </row>
-    <row r="12" spans="1:21" s="45" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="B12" s="41">
-        <v>9.75</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+    </row>
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42">
-        <v>41312</v>
-      </c>
-      <c r="H12" s="42">
-        <v>41812</v>
-      </c>
-      <c r="I12" s="22">
-        <v>1692</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="15">
+        <v>41675</v>
+      </c>
+      <c r="H12" s="15">
+        <v>42171</v>
+      </c>
+      <c r="I12" s="41">
+        <v>3175</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="9">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="B13" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
@@ -1311,16 +1283,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="15">
-        <v>41675</v>
+        <v>41741</v>
       </c>
       <c r="H13" s="15">
-        <v>42171</v>
-      </c>
-      <c r="I13" s="47">
-        <v>3175</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>19</v>
+        <v>42241</v>
+      </c>
+      <c r="I13" s="19">
+        <v>10125</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="11"/>
@@ -1334,79 +1306,79 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="B14" s="9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    <row r="14" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f>SUM(A11:A13)</f>
+        <v>23.5</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8">
+        <f>SUM(I11:I11)</f>
+        <v>5354</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>9.18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15">
-        <v>41741</v>
-      </c>
-      <c r="H14" s="15">
-        <v>42241</v>
-      </c>
-      <c r="I14" s="19">
-        <v>10125</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <f>SUM(A11:A14)</f>
-        <v>25.6</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8">
-        <f>SUM(I11:I12)</f>
-        <v>7046</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="15">
+        <v>41313</v>
+      </c>
+      <c r="H15" s="15">
+        <v>42043</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3353</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="9">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="B16" s="9">
         <v>9.18</v>
@@ -1422,16 +1394,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="15">
-        <v>41313</v>
+        <v>41442</v>
       </c>
       <c r="H16" s="15">
-        <v>42043</v>
+        <v>42172</v>
       </c>
       <c r="I16" s="19">
-        <v>3353</v>
+        <v>1871</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11"/>
@@ -1447,13 +1419,13 @@
     </row>
     <row r="17" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="9">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="B17" s="9">
-        <v>9.18</v>
-      </c>
-      <c r="C17" s="9">
-        <v>24</v>
+        <v>9.43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
@@ -1463,16 +1435,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="15">
-        <v>41442</v>
+        <v>41589</v>
       </c>
       <c r="H17" s="15">
-        <v>42172</v>
+        <v>41955</v>
       </c>
       <c r="I17" s="19">
-        <v>1871</v>
+        <v>2322</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
@@ -1488,7 +1460,7 @@
     </row>
     <row r="18" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="9">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="B18" s="9">
         <v>9.43</v>
@@ -1504,16 +1476,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="15">
-        <v>41589</v>
+        <v>41673</v>
       </c>
       <c r="H18" s="15">
-        <v>41955</v>
+        <v>42039</v>
       </c>
       <c r="I18" s="19">
-        <v>2322</v>
+        <v>9531</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="11"/>
@@ -1529,7 +1501,7 @@
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="9">
-        <v>11.9</v>
+        <v>3.55</v>
       </c>
       <c r="B19" s="9">
         <v>9.43</v>
@@ -1545,16 +1517,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="15">
-        <v>41673</v>
+        <v>41761</v>
       </c>
       <c r="H19" s="15">
-        <v>42039</v>
-      </c>
-      <c r="I19" s="19">
-        <v>9531</v>
+        <v>42127</v>
+      </c>
+      <c r="I19" s="44">
+        <v>2843</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
@@ -1568,126 +1540,126 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="9">
-        <v>3.55</v>
-      </c>
-      <c r="B20" s="9">
-        <v>9.43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="s">
+    <row r="20" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <f>SUM(A15:A19)</f>
+        <v>25.05</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="8">
+        <f>SUM(I15:I16)</f>
+        <v>5224</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15">
-        <v>41761</v>
-      </c>
-      <c r="H20" s="15">
-        <v>42127</v>
-      </c>
-      <c r="I20" s="51">
-        <v>2843</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <f>SUM(A16:A20)</f>
-        <v>25.05</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="8">
-        <f>SUM(I16:I17)</f>
-        <v>5224</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="B22" s="9">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="15">
+        <v>41637</v>
+      </c>
+      <c r="H21" s="15">
+        <v>42367</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15">
-        <v>41637</v>
-      </c>
-      <c r="H22" s="15">
-        <v>42367</v>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5">
+        <v>41405</v>
+      </c>
+      <c r="H22" s="5">
+        <v>42105</v>
       </c>
       <c r="I22" s="19">
-        <v>2000</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+        <v>3169</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1">
       <c r="A23" s="3">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="B23" s="3">
         <v>9.75</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
+      <c r="C23" s="3">
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -1697,16 +1669,16 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="5">
-        <v>41405</v>
+        <v>41429</v>
       </c>
       <c r="H23" s="5">
-        <v>42105</v>
+        <v>42159</v>
       </c>
       <c r="I23" s="19">
-        <v>3169</v>
+        <v>2803</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
@@ -1722,7 +1694,7 @@
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1">
       <c r="A24" s="3">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="B24" s="3">
         <v>9.75</v>
@@ -1738,16 +1710,16 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="5">
-        <v>41429</v>
+        <v>41520</v>
       </c>
       <c r="H24" s="5">
-        <v>42159</v>
+        <v>42250</v>
       </c>
       <c r="I24" s="19">
-        <v>2803</v>
+        <v>4672</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -1761,170 +1733,158 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="B25" s="3">
+    <row r="25" spans="1:21" s="39" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A25" s="34">
+        <v>3.15</v>
+      </c>
+      <c r="B25" s="34">
         <v>9.75</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="34">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5">
-        <v>41520</v>
-      </c>
-      <c r="H25" s="5">
-        <v>42250</v>
-      </c>
-      <c r="I25" s="19">
-        <v>4672</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" s="40" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="35">
-        <v>3.15</v>
-      </c>
-      <c r="B26" s="35">
+      <c r="F25" s="34"/>
+      <c r="G25" s="35">
+        <v>41536</v>
+      </c>
+      <c r="H25" s="35">
+        <v>42266</v>
+      </c>
+      <c r="I25" s="36">
+        <v>2559</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B26" s="3">
         <v>9.75</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36">
-        <v>41536</v>
-      </c>
-      <c r="H26" s="36">
-        <v>42266</v>
-      </c>
-      <c r="I26" s="37">
-        <v>2559</v>
-      </c>
-      <c r="J26" s="38" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="5">
+        <v>41552</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42282</v>
+      </c>
+      <c r="I26" s="19">
+        <v>3656</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" s="55" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="51">
+        <v>9</v>
+      </c>
+      <c r="C27" s="51">
+        <v>60</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5">
-        <v>41552</v>
-      </c>
-      <c r="H27" s="5">
-        <v>42282</v>
-      </c>
-      <c r="I27" s="19">
-        <v>3656</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="B28" s="58">
-        <v>9</v>
-      </c>
-      <c r="C28" s="58">
-        <v>60</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59">
+      <c r="F27" s="51"/>
+      <c r="G27" s="52">
         <v>41650</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H27" s="52">
         <v>43476</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I27" s="47">
         <f>1125/3</f>
         <v>375</v>
       </c>
-      <c r="J28" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
+      <c r="J27" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="51"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <f>SUM(A21:A27)</f>
+        <v>23.65</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="8">
+        <f>SUM(I21:I26)</f>
+        <v>18859</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
@@ -1932,18 +1892,12 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f>SUM(A22:A28)</f>
-        <v>23.65</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="8">
-        <f>SUM(I22:I27)</f>
-        <v>18859</v>
-      </c>
+      <c r="K29" s="3"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1956,16 +1910,26 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="57">
+        <v>41811</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="1">
+        <f>SUM(F3:F28)</f>
+        <v>111.65</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="3"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="16">
+        <f>SUM(I3:I26)</f>
+        <v>88616.666666666672</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -1979,26 +1943,16 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A31" s="64">
-        <v>41797</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="1">
-        <f>SUM(F3:F29)</f>
-        <v>113.75</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="16">
-        <f>SUM(I3:I27)</f>
-        <v>90283.666666666672</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2014,14 +1968,18 @@
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="8">
+        <v>17336</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2036,19 +1994,14 @@
     </row>
     <row r="33" spans="1:21" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="8">
-        <v>17336</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2063,13 +2016,17 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="17">
+        <f>I30+I32</f>
+        <v>105952.66666666667</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
@@ -2084,18 +2041,12 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="14"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="17">
-        <f>I31+I33</f>
-        <v>107619.66666666667</v>
-      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
@@ -2112,8 +2063,8 @@
     <row r="36" spans="1:21" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="E36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="3"/>
@@ -2132,9 +2083,12 @@
     <row r="37" spans="1:21" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2150,14 +2104,22 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C38" s="4">
+        <f>SUM(I21:I26) * 12 + 4*I27</f>
+        <v>227808</v>
+      </c>
+      <c r="E38" s="4">
+        <f>B38-C38</f>
+        <v>22192</v>
+      </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2180,12 +2142,12 @@
         <v>250000</v>
       </c>
       <c r="C39" s="4">
-        <f>SUM(I22:I27) * 12 + 4*I28</f>
-        <v>227808</v>
+        <f>SUM(I15:I19) * 12</f>
+        <v>239040</v>
       </c>
       <c r="E39" s="4">
         <f>B39-C39</f>
-        <v>22192</v>
+        <v>10960</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2211,16 +2173,18 @@
         <v>250000</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(I16:I20) * 12</f>
-        <v>239040</v>
-      </c>
+        <f>1692 * 3 + SUM(I11:I13) * 12</f>
+        <v>228924</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4">
-        <f>B40-C40</f>
-        <v>10960</v>
-      </c>
+        <f t="shared" ref="E40:E42" si="0">B40-C40</f>
+        <v>21076</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
@@ -2242,18 +2206,21 @@
         <v>250000</v>
       </c>
       <c r="C41" s="4">
-        <f>SUM(I11:I14) * 12</f>
-        <v>244152</v>
+        <f>SUM(I7:I8) * 12 + 2 * 4030 + I9 * 11</f>
+        <v>226275</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
-        <f t="shared" ref="E41:E43" si="0">B41-C41</f>
-        <v>5848</v>
+        <f t="shared" si="0"/>
+        <v>23725</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="G41" s="58">
+        <f>E41/10</f>
+        <v>2372.5</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
@@ -2275,18 +2242,16 @@
         <v>250000</v>
       </c>
       <c r="C42" s="4">
-        <f>SUM(I7:I8) * 12 + 2 * 4030 + I9 * 11</f>
-        <v>226000</v>
+        <f>SUM(I3:I5) * 12</f>
+        <v>152564</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>97436</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="3"/>
@@ -2303,21 +2268,11 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C43" s="4">
-        <f>SUM(I3:I5) * 12</f>
-        <v>152564</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>97436</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2428,7 +2383,7 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A48" s="4"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2451,7 +2406,7 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A49" s="63"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3784,29 +3739,6 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Fix/fix cur. 17.xlsx
+++ b/Fix/fix cur. 17.xlsx
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2215,10 +2215,7 @@
         <v>23725</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="58">
-        <f>E41/10</f>
-        <v>2372.5</v>
-      </c>
+      <c r="G41" s="58"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="3"/>
